--- a/files/SI_Data_5__CS_Correlation.xlsx
+++ b/files/SI_Data_5__CS_Correlation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsun/Google Drive/projects/HuoberBrezel/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92791E5-E970-A148-AD0F-6175F99F34B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8066DBAB-3050-0B42-9752-BD09C90BF258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="800" windowWidth="22560" windowHeight="15920" xr2:uid="{0A1B866E-BAB2-5B48-9BA1-056163FF4A88}"/>
+    <workbookView xWindow="1780" yWindow="940" windowWidth="22560" windowHeight="15920" xr2:uid="{0A1B866E-BAB2-5B48-9BA1-056163FF4A88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="8" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -50,12 +50,6 @@
     <t>s.d</t>
   </si>
   <si>
-    <t>3'-end RNA-Seq (HISAT)</t>
-  </si>
-  <si>
-    <t>paired-end RNA-Seq (HISAT)</t>
-  </si>
-  <si>
     <t>paired-end RNA-Seq (EAGLERC)</t>
   </si>
   <si>
@@ -75,6 +69,15 @@
   </si>
   <si>
     <t>#6</t>
+  </si>
+  <si>
+    <t>Lasy-Seq (HISAT2)</t>
+  </si>
+  <si>
+    <t>paired-end RNA-Seq (HISAT2)</t>
+  </si>
+  <si>
+    <t>replicate</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,18 +470,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C1" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="1"/>
       <c r="H1" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,10 +500,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>0.75106620000000002</v>
@@ -515,7 +521,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>0.72219060000000002</v>
@@ -533,7 +539,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>0.79681489999999999</v>
@@ -551,7 +557,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
         <v>0.6914363</v>
@@ -569,7 +575,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
         <v>0.80362599999999995</v>
@@ -587,7 +593,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
         <v>0.79586179999999995</v>
@@ -655,9 +661,11 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +675,9 @@
       <c r="E12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
@@ -680,7 +690,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <v>0.73685929999999999</v>
@@ -692,7 +702,7 @@
         <v>0.75094930000000004</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3">
         <v>0.95865650000000002</v>
@@ -706,7 +716,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="3">
         <v>0.70549110000000004</v>
@@ -718,7 +728,7 @@
         <v>0.70731250000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3">
         <v>0.95551660000000005</v>
@@ -732,7 +742,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
         <v>0.78419329999999998</v>
@@ -744,7 +754,7 @@
         <v>0.78654449999999998</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H15" s="3">
         <v>0.9616905</v>
@@ -758,7 +768,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3">
         <v>0.67347780000000002</v>
@@ -770,7 +780,7 @@
         <v>0.69741529999999996</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3">
         <v>0.95426690000000003</v>
@@ -784,7 +794,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>0.79263150000000004</v>
@@ -796,7 +806,7 @@
         <v>0.79526240000000004</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>0.95808789999999999</v>
@@ -810,7 +820,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>0.78251870000000001</v>
@@ -822,7 +832,7 @@
         <v>0.78793829999999998</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18" s="3">
         <v>0.9620978</v>
